--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618333.3988208852</v>
+        <v>632059.7569583029</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698524</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
@@ -26341,16 +26343,16 @@
         <v>165764.7948173021</v>
       </c>
       <c r="L2" t="n">
-        <v>165764.7948173021</v>
+        <v>165764.7948173022</v>
       </c>
       <c r="M2" t="n">
-        <v>165764.7948173021</v>
+        <v>165764.7948173022</v>
       </c>
       <c r="N2" t="n">
-        <v>165764.7948173021</v>
+        <v>165764.7948173022</v>
       </c>
       <c r="O2" t="n">
-        <v>165764.7948173021</v>
+        <v>165764.7948173022</v>
       </c>
       <c r="P2" t="n">
         <v>165764.7948173021</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812136</v>
+        <v>92731.78563812116</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812148</v>
+        <v>92731.78563812128</v>
       </c>
       <c r="D6" t="n">
-        <v>92731.78563812136</v>
+        <v>92731.78563812139</v>
       </c>
       <c r="E6" t="n">
-        <v>-50583.61729220585</v>
+        <v>-50583.61729220591</v>
       </c>
       <c r="F6" t="n">
         <v>82516.38270779415</v>
@@ -26549,16 +26551,16 @@
         <v>82516.38270779415</v>
       </c>
       <c r="L6" t="n">
-        <v>82516.38270779415</v>
+        <v>82516.38270779418</v>
       </c>
       <c r="M6" t="n">
-        <v>82516.38270779415</v>
+        <v>82516.38270779421</v>
       </c>
       <c r="N6" t="n">
-        <v>82516.38270779415</v>
+        <v>82516.38270779418</v>
       </c>
       <c r="O6" t="n">
-        <v>82516.38270779415</v>
+        <v>82516.38270779418</v>
       </c>
       <c r="P6" t="n">
         <v>82516.38270779415</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632059.7569583029</v>
+        <v>548274.3551966783</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>593975.3455698524</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
         <v>165764.7948173021</v>
@@ -26343,16 +26343,16 @@
         <v>165764.7948173021</v>
       </c>
       <c r="L2" t="n">
-        <v>165764.7948173022</v>
+        <v>165764.7948173021</v>
       </c>
       <c r="M2" t="n">
-        <v>165764.7948173022</v>
+        <v>165764.7948173021</v>
       </c>
       <c r="N2" t="n">
-        <v>165764.7948173022</v>
+        <v>165764.7948173021</v>
       </c>
       <c r="O2" t="n">
-        <v>165764.7948173022</v>
+        <v>165764.7948173021</v>
       </c>
       <c r="P2" t="n">
         <v>165764.7948173021</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92731.78563812116</v>
+        <v>92687.64985944003</v>
       </c>
       <c r="C6" t="n">
-        <v>92731.78563812128</v>
+        <v>92687.64985944038</v>
       </c>
       <c r="D6" t="n">
-        <v>92731.78563812139</v>
+        <v>92687.64985944038</v>
       </c>
       <c r="E6" t="n">
-        <v>-50583.61729220591</v>
+        <v>-65393.63413131982</v>
       </c>
       <c r="F6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="G6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="H6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="I6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="J6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="K6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="L6" t="n">
-        <v>82516.38270779418</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="M6" t="n">
-        <v>82516.38270779421</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="N6" t="n">
-        <v>82516.38270779418</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="O6" t="n">
-        <v>82516.38270779418</v>
+        <v>67706.36586868025</v>
       </c>
       <c r="P6" t="n">
-        <v>82516.38270779415</v>
+        <v>67706.36586868025</v>
       </c>
     </row>
   </sheetData>
